--- a/biology/Zoologie/Centre_national_de_formation_des_unités_cynophiles/Centre_national_de_formation_des_unités_cynophiles.xlsx
+++ b/biology/Zoologie/Centre_national_de_formation_des_unités_cynophiles/Centre_national_de_formation_des_unités_cynophiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_national_de_formation_des_unit%C3%A9s_cynophiles</t>
+          <t>Centre_national_de_formation_des_unités_cynophiles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre national de formation des unités cynophiles de la police nationale (CNFUC) est implanté à Cannes-Écluse en Seine-et-Marne depuis 1965, et rattaché à la Division des Techniques et de la Sécurité en Intervention de la Sous-direction de la formation et du développement des compétences.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_national_de_formation_des_unit%C3%A9s_cynophiles</t>
+          <t>Centre_national_de_formation_des_unités_cynophiles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Les missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CNFUC a pour missions :
 de former les spécialistes cynophiles de la Police nationale,
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_national_de_formation_des_unit%C3%A9s_cynophiles</t>
+          <t>Centre_national_de_formation_des_unités_cynophiles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première unité cynophile en France est mise en place en 1907 à Neuilly-sur-Seine par le commissaire Simart, à la demande du préfet Louis Lépine voulant reproduire les expériences similaires en Allemagne, Autriche, Belgique et Pays-Bas[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première unité cynophile en France est mise en place en 1907 à Neuilly-sur-Seine par le commissaire Simart, à la demande du préfet Louis Lépine voulant reproduire les expériences similaires en Allemagne, Autriche, Belgique et Pays-Bas.
 </t>
         </is>
       </c>
